--- a/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200219.xlsx
+++ b/data/unchecked/manual_collect/china/zhejiang/zhejiangCaseStatistics_20200219.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ncp/zhejiang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E7AEE3-A68D-8B45-8EC6-5C8BF6395074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C1D2B-78E2-C947-B7D7-3A5FD7AE315A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10859,8 +10859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17"/>
@@ -11224,11 +11224,14 @@
       <c r="G5" s="20" t="s">
         <v>166</v>
       </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
       <c r="M5" s="13">
         <v>10</v>
       </c>
       <c r="O5" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S5" s="13" t="s">
         <v>3293</v>
@@ -11281,13 +11284,13 @@
         <v>1</v>
       </c>
       <c r="K6" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M6" s="13">
         <v>45</v>
       </c>
       <c r="O6" s="13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S6" s="13" t="s">
         <v>3293</v>
@@ -11336,14 +11339,11 @@
       <c r="G7" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="13">
-        <v>5</v>
-      </c>
       <c r="M7" s="13">
         <v>42</v>
       </c>
       <c r="O7" s="13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S7" s="13" t="s">
         <v>3293</v>
